--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_239.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_239.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32825-d78214-Reviews-Embassy_Suites_by_Hilton_Anaheim_Orange-Orange_California.html</t>
+  </si>
+  <si>
+    <t>981</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1006</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Embassy-Suites-By-Hilton-Anaheim-Orange.h12862.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_239.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_239.xlsx
@@ -13102,7 +13102,7 @@
         <v>27140</v>
       </c>
       <c r="B2" t="n">
-        <v>143252</v>
+        <v>174475</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -13177,7 +13177,7 @@
         <v>27140</v>
       </c>
       <c r="B3" t="n">
-        <v>143253</v>
+        <v>174476</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -13248,7 +13248,7 @@
         <v>27140</v>
       </c>
       <c r="B4" t="n">
-        <v>143254</v>
+        <v>174477</v>
       </c>
       <c r="C4" t="s">
         <v>65</v>
@@ -13319,7 +13319,7 @@
         <v>27140</v>
       </c>
       <c r="B5" t="n">
-        <v>143255</v>
+        <v>143268</v>
       </c>
       <c r="C5" t="s">
         <v>71</v>
@@ -13394,7 +13394,7 @@
         <v>27140</v>
       </c>
       <c r="B6" t="n">
-        <v>143256</v>
+        <v>174478</v>
       </c>
       <c r="C6" t="s">
         <v>81</v>
@@ -13469,7 +13469,7 @@
         <v>27140</v>
       </c>
       <c r="B7" t="n">
-        <v>143257</v>
+        <v>174479</v>
       </c>
       <c r="C7" t="s">
         <v>91</v>
@@ -13534,7 +13534,7 @@
         <v>27140</v>
       </c>
       <c r="B8" t="n">
-        <v>143258</v>
+        <v>174480</v>
       </c>
       <c r="C8" t="s">
         <v>98</v>
@@ -13609,7 +13609,7 @@
         <v>27140</v>
       </c>
       <c r="B9" t="n">
-        <v>143259</v>
+        <v>174481</v>
       </c>
       <c r="C9" t="s">
         <v>105</v>
@@ -13749,7 +13749,7 @@
         <v>27140</v>
       </c>
       <c r="B11" t="n">
-        <v>143260</v>
+        <v>174482</v>
       </c>
       <c r="C11" t="s">
         <v>122</v>
@@ -13814,7 +13814,7 @@
         <v>27140</v>
       </c>
       <c r="B12" t="n">
-        <v>143261</v>
+        <v>174483</v>
       </c>
       <c r="C12" t="s">
         <v>128</v>
@@ -13889,7 +13889,7 @@
         <v>27140</v>
       </c>
       <c r="B13" t="n">
-        <v>143262</v>
+        <v>174484</v>
       </c>
       <c r="C13" t="s">
         <v>137</v>
@@ -14039,7 +14039,7 @@
         <v>27140</v>
       </c>
       <c r="B15" t="n">
-        <v>143263</v>
+        <v>174485</v>
       </c>
       <c r="C15" t="s">
         <v>155</v>
@@ -14181,7 +14181,7 @@
         <v>27140</v>
       </c>
       <c r="B17" t="n">
-        <v>143264</v>
+        <v>174486</v>
       </c>
       <c r="C17" t="s">
         <v>170</v>
@@ -14252,7 +14252,7 @@
         <v>27140</v>
       </c>
       <c r="B18" t="n">
-        <v>143265</v>
+        <v>174487</v>
       </c>
       <c r="C18" t="s">
         <v>177</v>
@@ -14313,7 +14313,7 @@
         <v>27140</v>
       </c>
       <c r="B19" t="n">
-        <v>143266</v>
+        <v>174488</v>
       </c>
       <c r="C19" t="s">
         <v>183</v>
@@ -14384,7 +14384,7 @@
         <v>27140</v>
       </c>
       <c r="B20" t="n">
-        <v>143267</v>
+        <v>174489</v>
       </c>
       <c r="C20" t="s">
         <v>189</v>
@@ -14451,7 +14451,7 @@
         <v>27140</v>
       </c>
       <c r="B21" t="n">
-        <v>143268</v>
+        <v>174490</v>
       </c>
       <c r="C21" t="s">
         <v>197</v>
@@ -14522,7 +14522,7 @@
         <v>27140</v>
       </c>
       <c r="B22" t="n">
-        <v>143269</v>
+        <v>174491</v>
       </c>
       <c r="C22" t="s">
         <v>203</v>
@@ -14593,7 +14593,7 @@
         <v>27140</v>
       </c>
       <c r="B23" t="n">
-        <v>143270</v>
+        <v>174492</v>
       </c>
       <c r="C23" t="s">
         <v>208</v>
@@ -14739,7 +14739,7 @@
         <v>27140</v>
       </c>
       <c r="B25" t="n">
-        <v>143271</v>
+        <v>174493</v>
       </c>
       <c r="C25" t="s">
         <v>224</v>
@@ -14810,7 +14810,7 @@
         <v>27140</v>
       </c>
       <c r="B26" t="n">
-        <v>143272</v>
+        <v>174494</v>
       </c>
       <c r="C26" t="s">
         <v>233</v>
@@ -14875,7 +14875,7 @@
         <v>27140</v>
       </c>
       <c r="B27" t="n">
-        <v>143273</v>
+        <v>174495</v>
       </c>
       <c r="C27" t="s">
         <v>242</v>
@@ -15011,7 +15011,7 @@
         <v>27140</v>
       </c>
       <c r="B29" t="n">
-        <v>143274</v>
+        <v>174496</v>
       </c>
       <c r="C29" t="s">
         <v>254</v>
@@ -15080,7 +15080,7 @@
         <v>27140</v>
       </c>
       <c r="B30" t="n">
-        <v>143275</v>
+        <v>174497</v>
       </c>
       <c r="C30" t="s">
         <v>265</v>
@@ -15155,7 +15155,7 @@
         <v>27140</v>
       </c>
       <c r="B31" t="n">
-        <v>143276</v>
+        <v>174498</v>
       </c>
       <c r="C31" t="s">
         <v>274</v>
@@ -15226,7 +15226,7 @@
         <v>27140</v>
       </c>
       <c r="B32" t="n">
-        <v>143277</v>
+        <v>174499</v>
       </c>
       <c r="C32" t="s">
         <v>279</v>
@@ -15372,7 +15372,7 @@
         <v>27140</v>
       </c>
       <c r="B34" t="n">
-        <v>143278</v>
+        <v>174500</v>
       </c>
       <c r="C34" t="s">
         <v>295</v>
@@ -15437,7 +15437,7 @@
         <v>27140</v>
       </c>
       <c r="B35" t="n">
-        <v>143279</v>
+        <v>174501</v>
       </c>
       <c r="C35" t="s">
         <v>301</v>
@@ -15504,7 +15504,7 @@
         <v>27140</v>
       </c>
       <c r="B36" t="n">
-        <v>143280</v>
+        <v>174502</v>
       </c>
       <c r="C36" t="s">
         <v>308</v>
@@ -15642,7 +15642,7 @@
         <v>27140</v>
       </c>
       <c r="B38" t="n">
-        <v>143281</v>
+        <v>174503</v>
       </c>
       <c r="C38" t="s">
         <v>320</v>
@@ -15707,7 +15707,7 @@
         <v>27140</v>
       </c>
       <c r="B39" t="n">
-        <v>143282</v>
+        <v>174504</v>
       </c>
       <c r="C39" t="s">
         <v>327</v>
@@ -15772,7 +15772,7 @@
         <v>27140</v>
       </c>
       <c r="B40" t="n">
-        <v>143283</v>
+        <v>174505</v>
       </c>
       <c r="C40" t="s">
         <v>335</v>
@@ -15843,7 +15843,7 @@
         <v>27140</v>
       </c>
       <c r="B41" t="n">
-        <v>143284</v>
+        <v>174506</v>
       </c>
       <c r="C41" t="s">
         <v>344</v>
@@ -15918,7 +15918,7 @@
         <v>27140</v>
       </c>
       <c r="B42" t="n">
-        <v>143285</v>
+        <v>174507</v>
       </c>
       <c r="C42" t="s">
         <v>352</v>
@@ -15993,7 +15993,7 @@
         <v>27140</v>
       </c>
       <c r="B43" t="n">
-        <v>143286</v>
+        <v>174508</v>
       </c>
       <c r="C43" t="s">
         <v>359</v>
@@ -16054,7 +16054,7 @@
         <v>27140</v>
       </c>
       <c r="B44" t="n">
-        <v>143287</v>
+        <v>174509</v>
       </c>
       <c r="C44" t="s">
         <v>365</v>
@@ -16125,7 +16125,7 @@
         <v>27140</v>
       </c>
       <c r="B45" t="n">
-        <v>143288</v>
+        <v>174510</v>
       </c>
       <c r="C45" t="s">
         <v>371</v>
@@ -16196,7 +16196,7 @@
         <v>27140</v>
       </c>
       <c r="B46" t="n">
-        <v>143289</v>
+        <v>174511</v>
       </c>
       <c r="C46" t="s">
         <v>377</v>
@@ -16267,7 +16267,7 @@
         <v>27140</v>
       </c>
       <c r="B47" t="n">
-        <v>143290</v>
+        <v>174512</v>
       </c>
       <c r="C47" t="s">
         <v>383</v>
@@ -16342,7 +16342,7 @@
         <v>27140</v>
       </c>
       <c r="B48" t="n">
-        <v>143291</v>
+        <v>174513</v>
       </c>
       <c r="C48" t="s">
         <v>392</v>
@@ -16413,7 +16413,7 @@
         <v>27140</v>
       </c>
       <c r="B49" t="n">
-        <v>143292</v>
+        <v>174514</v>
       </c>
       <c r="C49" t="s">
         <v>398</v>
@@ -16478,7 +16478,7 @@
         <v>27140</v>
       </c>
       <c r="B50" t="n">
-        <v>143293</v>
+        <v>174515</v>
       </c>
       <c r="C50" t="s">
         <v>405</v>
@@ -16539,7 +16539,7 @@
         <v>27140</v>
       </c>
       <c r="B51" t="n">
-        <v>143294</v>
+        <v>174516</v>
       </c>
       <c r="C51" t="s">
         <v>413</v>
@@ -16675,7 +16675,7 @@
         <v>27140</v>
       </c>
       <c r="B53" t="n">
-        <v>143295</v>
+        <v>174517</v>
       </c>
       <c r="C53" t="s">
         <v>425</v>
@@ -16746,7 +16746,7 @@
         <v>27140</v>
       </c>
       <c r="B54" t="n">
-        <v>143296</v>
+        <v>174518</v>
       </c>
       <c r="C54" t="s">
         <v>431</v>
@@ -16817,7 +16817,7 @@
         <v>27140</v>
       </c>
       <c r="B55" t="n">
-        <v>143297</v>
+        <v>174519</v>
       </c>
       <c r="C55" t="s">
         <v>437</v>
@@ -16888,7 +16888,7 @@
         <v>27140</v>
       </c>
       <c r="B56" t="n">
-        <v>143298</v>
+        <v>174520</v>
       </c>
       <c r="C56" t="s">
         <v>443</v>
@@ -16963,7 +16963,7 @@
         <v>27140</v>
       </c>
       <c r="B57" t="n">
-        <v>143299</v>
+        <v>174521</v>
       </c>
       <c r="C57" t="s">
         <v>452</v>
@@ -17038,7 +17038,7 @@
         <v>27140</v>
       </c>
       <c r="B58" t="n">
-        <v>143300</v>
+        <v>174522</v>
       </c>
       <c r="C58" t="s">
         <v>459</v>
@@ -17113,7 +17113,7 @@
         <v>27140</v>
       </c>
       <c r="B59" t="n">
-        <v>143301</v>
+        <v>174523</v>
       </c>
       <c r="C59" t="s">
         <v>468</v>
@@ -17184,7 +17184,7 @@
         <v>27140</v>
       </c>
       <c r="B60" t="n">
-        <v>143302</v>
+        <v>174524</v>
       </c>
       <c r="C60" t="s">
         <v>474</v>
@@ -17334,7 +17334,7 @@
         <v>27140</v>
       </c>
       <c r="B62" t="n">
-        <v>143303</v>
+        <v>174525</v>
       </c>
       <c r="C62" t="s">
         <v>492</v>
@@ -17409,7 +17409,7 @@
         <v>27140</v>
       </c>
       <c r="B63" t="n">
-        <v>143304</v>
+        <v>174526</v>
       </c>
       <c r="C63" t="s">
         <v>499</v>
@@ -17484,7 +17484,7 @@
         <v>27140</v>
       </c>
       <c r="B64" t="n">
-        <v>143305</v>
+        <v>174527</v>
       </c>
       <c r="C64" t="s">
         <v>505</v>
@@ -17559,7 +17559,7 @@
         <v>27140</v>
       </c>
       <c r="B65" t="n">
-        <v>143306</v>
+        <v>174528</v>
       </c>
       <c r="C65" t="s">
         <v>511</v>
@@ -17634,7 +17634,7 @@
         <v>27140</v>
       </c>
       <c r="B66" t="n">
-        <v>143307</v>
+        <v>174529</v>
       </c>
       <c r="C66" t="s">
         <v>518</v>
@@ -17705,7 +17705,7 @@
         <v>27140</v>
       </c>
       <c r="B67" t="n">
-        <v>143308</v>
+        <v>174530</v>
       </c>
       <c r="C67" t="s">
         <v>524</v>
@@ -17776,7 +17776,7 @@
         <v>27140</v>
       </c>
       <c r="B68" t="n">
-        <v>143309</v>
+        <v>174531</v>
       </c>
       <c r="C68" t="s">
         <v>530</v>
@@ -17847,7 +17847,7 @@
         <v>27140</v>
       </c>
       <c r="B69" t="n">
-        <v>143310</v>
+        <v>174532</v>
       </c>
       <c r="C69" t="s">
         <v>536</v>
@@ -17912,7 +17912,7 @@
         <v>27140</v>
       </c>
       <c r="B70" t="n">
-        <v>143311</v>
+        <v>174533</v>
       </c>
       <c r="C70" t="s">
         <v>545</v>
@@ -17979,7 +17979,7 @@
         <v>27140</v>
       </c>
       <c r="B71" t="n">
-        <v>143312</v>
+        <v>174534</v>
       </c>
       <c r="C71" t="s">
         <v>552</v>
@@ -18121,7 +18121,7 @@
         <v>27140</v>
       </c>
       <c r="B73" t="n">
-        <v>143313</v>
+        <v>174535</v>
       </c>
       <c r="C73" t="s">
         <v>564</v>
@@ -18182,7 +18182,7 @@
         <v>27140</v>
       </c>
       <c r="B74" t="n">
-        <v>143314</v>
+        <v>174536</v>
       </c>
       <c r="C74" t="s">
         <v>570</v>
@@ -18253,7 +18253,7 @@
         <v>27140</v>
       </c>
       <c r="B75" t="n">
-        <v>143315</v>
+        <v>143391</v>
       </c>
       <c r="C75" t="s">
         <v>576</v>
@@ -18314,7 +18314,7 @@
         <v>27140</v>
       </c>
       <c r="B76" t="n">
-        <v>143316</v>
+        <v>174537</v>
       </c>
       <c r="C76" t="s">
         <v>584</v>
@@ -18381,7 +18381,7 @@
         <v>27140</v>
       </c>
       <c r="B77" t="n">
-        <v>143317</v>
+        <v>174538</v>
       </c>
       <c r="C77" t="s">
         <v>589</v>
@@ -18452,7 +18452,7 @@
         <v>27140</v>
       </c>
       <c r="B78" t="n">
-        <v>143318</v>
+        <v>174539</v>
       </c>
       <c r="C78" t="s">
         <v>595</v>
@@ -18513,7 +18513,7 @@
         <v>27140</v>
       </c>
       <c r="B79" t="n">
-        <v>143319</v>
+        <v>174540</v>
       </c>
       <c r="C79" t="s">
         <v>602</v>
@@ -18641,7 +18641,7 @@
         <v>27140</v>
       </c>
       <c r="B81" t="n">
-        <v>143320</v>
+        <v>174541</v>
       </c>
       <c r="C81" t="s">
         <v>614</v>
@@ -18712,7 +18712,7 @@
         <v>27140</v>
       </c>
       <c r="B82" t="n">
-        <v>143321</v>
+        <v>174542</v>
       </c>
       <c r="C82" t="s">
         <v>619</v>
@@ -18783,7 +18783,7 @@
         <v>27140</v>
       </c>
       <c r="B83" t="n">
-        <v>143322</v>
+        <v>174543</v>
       </c>
       <c r="C83" t="s">
         <v>625</v>
@@ -18854,7 +18854,7 @@
         <v>27140</v>
       </c>
       <c r="B84" t="n">
-        <v>143323</v>
+        <v>174544</v>
       </c>
       <c r="C84" t="s">
         <v>631</v>
@@ -18925,7 +18925,7 @@
         <v>27140</v>
       </c>
       <c r="B85" t="n">
-        <v>143324</v>
+        <v>174545</v>
       </c>
       <c r="C85" t="s">
         <v>637</v>
@@ -18996,7 +18996,7 @@
         <v>27140</v>
       </c>
       <c r="B86" t="n">
-        <v>143325</v>
+        <v>174546</v>
       </c>
       <c r="C86" t="s">
         <v>643</v>
@@ -19067,7 +19067,7 @@
         <v>27140</v>
       </c>
       <c r="B87" t="n">
-        <v>143326</v>
+        <v>174547</v>
       </c>
       <c r="C87" t="s">
         <v>649</v>
@@ -19138,7 +19138,7 @@
         <v>27140</v>
       </c>
       <c r="B88" t="n">
-        <v>143327</v>
+        <v>174548</v>
       </c>
       <c r="C88" t="s">
         <v>655</v>
@@ -19207,7 +19207,7 @@
         <v>27140</v>
       </c>
       <c r="B89" t="n">
-        <v>143328</v>
+        <v>174549</v>
       </c>
       <c r="C89" t="s">
         <v>660</v>
@@ -19345,7 +19345,7 @@
         <v>27140</v>
       </c>
       <c r="B91" t="n">
-        <v>143329</v>
+        <v>174550</v>
       </c>
       <c r="C91" t="s">
         <v>672</v>
@@ -19402,7 +19402,7 @@
         <v>27140</v>
       </c>
       <c r="B92" t="n">
-        <v>143330</v>
+        <v>174551</v>
       </c>
       <c r="C92" t="s">
         <v>678</v>
@@ -19473,7 +19473,7 @@
         <v>27140</v>
       </c>
       <c r="B93" t="n">
-        <v>143331</v>
+        <v>174552</v>
       </c>
       <c r="C93" t="s">
         <v>684</v>
@@ -19678,7 +19678,7 @@
         <v>27140</v>
       </c>
       <c r="B96" t="n">
-        <v>143332</v>
+        <v>174553</v>
       </c>
       <c r="C96" t="s">
         <v>703</v>
@@ -19810,7 +19810,7 @@
         <v>27140</v>
       </c>
       <c r="B98" t="n">
-        <v>143333</v>
+        <v>174554</v>
       </c>
       <c r="C98" t="s">
         <v>714</v>
@@ -19881,7 +19881,7 @@
         <v>27140</v>
       </c>
       <c r="B99" t="n">
-        <v>143334</v>
+        <v>174555</v>
       </c>
       <c r="C99" t="s">
         <v>720</v>
@@ -19942,7 +19942,7 @@
         <v>27140</v>
       </c>
       <c r="B100" t="n">
-        <v>143335</v>
+        <v>174556</v>
       </c>
       <c r="C100" t="s">
         <v>726</v>
@@ -20003,7 +20003,7 @@
         <v>27140</v>
       </c>
       <c r="B101" t="n">
-        <v>143336</v>
+        <v>174557</v>
       </c>
       <c r="C101" t="s">
         <v>733</v>
@@ -20074,7 +20074,7 @@
         <v>27140</v>
       </c>
       <c r="B102" t="n">
-        <v>143337</v>
+        <v>174558</v>
       </c>
       <c r="C102" t="s">
         <v>740</v>
@@ -20141,7 +20141,7 @@
         <v>27140</v>
       </c>
       <c r="B103" t="n">
-        <v>143338</v>
+        <v>174559</v>
       </c>
       <c r="C103" t="s">
         <v>747</v>
@@ -20202,7 +20202,7 @@
         <v>27140</v>
       </c>
       <c r="B104" t="n">
-        <v>143339</v>
+        <v>174560</v>
       </c>
       <c r="C104" t="s">
         <v>754</v>
@@ -20334,7 +20334,7 @@
         <v>27140</v>
       </c>
       <c r="B106" t="n">
-        <v>143340</v>
+        <v>174561</v>
       </c>
       <c r="C106" t="s">
         <v>766</v>
@@ -20405,7 +20405,7 @@
         <v>27140</v>
       </c>
       <c r="B107" t="n">
-        <v>143341</v>
+        <v>174562</v>
       </c>
       <c r="C107" t="s">
         <v>772</v>
@@ -20470,7 +20470,7 @@
         <v>27140</v>
       </c>
       <c r="B108" t="n">
-        <v>143342</v>
+        <v>174563</v>
       </c>
       <c r="C108" t="s">
         <v>779</v>
@@ -20531,7 +20531,7 @@
         <v>27140</v>
       </c>
       <c r="B109" t="n">
-        <v>143343</v>
+        <v>174564</v>
       </c>
       <c r="C109" t="s">
         <v>786</v>
@@ -20602,7 +20602,7 @@
         <v>27140</v>
       </c>
       <c r="B110" t="n">
-        <v>143344</v>
+        <v>174565</v>
       </c>
       <c r="C110" t="s">
         <v>792</v>
@@ -20673,7 +20673,7 @@
         <v>27140</v>
       </c>
       <c r="B111" t="n">
-        <v>143345</v>
+        <v>174566</v>
       </c>
       <c r="C111" t="s">
         <v>798</v>
@@ -20740,7 +20740,7 @@
         <v>27140</v>
       </c>
       <c r="B112" t="n">
-        <v>143346</v>
+        <v>174567</v>
       </c>
       <c r="C112" t="s">
         <v>805</v>
@@ -20882,7 +20882,7 @@
         <v>27140</v>
       </c>
       <c r="B114" t="n">
-        <v>143347</v>
+        <v>174568</v>
       </c>
       <c r="C114" t="s">
         <v>818</v>
@@ -20953,7 +20953,7 @@
         <v>27140</v>
       </c>
       <c r="B115" t="n">
-        <v>143348</v>
+        <v>174569</v>
       </c>
       <c r="C115" t="s">
         <v>823</v>
@@ -21024,7 +21024,7 @@
         <v>27140</v>
       </c>
       <c r="B116" t="n">
-        <v>143349</v>
+        <v>174570</v>
       </c>
       <c r="C116" t="s">
         <v>828</v>
@@ -21085,7 +21085,7 @@
         <v>27140</v>
       </c>
       <c r="B117" t="n">
-        <v>143350</v>
+        <v>174571</v>
       </c>
       <c r="C117" t="s">
         <v>835</v>
@@ -21150,7 +21150,7 @@
         <v>27140</v>
       </c>
       <c r="B118" t="n">
-        <v>143351</v>
+        <v>174572</v>
       </c>
       <c r="C118" t="s">
         <v>841</v>
@@ -21221,7 +21221,7 @@
         <v>27140</v>
       </c>
       <c r="B119" t="n">
-        <v>143254</v>
+        <v>143268</v>
       </c>
       <c r="C119" t="s">
         <v>71</v>
@@ -21282,7 +21282,7 @@
         <v>27140</v>
       </c>
       <c r="B120" t="n">
-        <v>143352</v>
+        <v>174573</v>
       </c>
       <c r="C120" t="s">
         <v>851</v>
@@ -21349,7 +21349,7 @@
         <v>27140</v>
       </c>
       <c r="B121" t="n">
-        <v>143353</v>
+        <v>174574</v>
       </c>
       <c r="C121" t="s">
         <v>858</v>
@@ -21414,7 +21414,7 @@
         <v>27140</v>
       </c>
       <c r="B122" t="n">
-        <v>143354</v>
+        <v>174575</v>
       </c>
       <c r="C122" t="s">
         <v>864</v>
@@ -21485,7 +21485,7 @@
         <v>27140</v>
       </c>
       <c r="B123" t="n">
-        <v>143355</v>
+        <v>174576</v>
       </c>
       <c r="C123" t="s">
         <v>870</v>
@@ -21556,7 +21556,7 @@
         <v>27140</v>
       </c>
       <c r="B124" t="n">
-        <v>143356</v>
+        <v>174577</v>
       </c>
       <c r="C124" t="s">
         <v>875</v>
@@ -21627,7 +21627,7 @@
         <v>27140</v>
       </c>
       <c r="B125" t="n">
-        <v>143357</v>
+        <v>174578</v>
       </c>
       <c r="C125" t="s">
         <v>881</v>
@@ -21692,7 +21692,7 @@
         <v>27140</v>
       </c>
       <c r="B126" t="n">
-        <v>143358</v>
+        <v>174579</v>
       </c>
       <c r="C126" t="s">
         <v>888</v>
@@ -21763,7 +21763,7 @@
         <v>27140</v>
       </c>
       <c r="B127" t="n">
-        <v>143359</v>
+        <v>174580</v>
       </c>
       <c r="C127" t="s">
         <v>895</v>
@@ -21834,7 +21834,7 @@
         <v>27140</v>
       </c>
       <c r="B128" t="n">
-        <v>143360</v>
+        <v>174581</v>
       </c>
       <c r="C128" t="s">
         <v>901</v>
@@ -21905,7 +21905,7 @@
         <v>27140</v>
       </c>
       <c r="B129" t="n">
-        <v>143361</v>
+        <v>174582</v>
       </c>
       <c r="C129" t="s">
         <v>907</v>
@@ -21970,7 +21970,7 @@
         <v>27140</v>
       </c>
       <c r="B130" t="n">
-        <v>143362</v>
+        <v>174583</v>
       </c>
       <c r="C130" t="s">
         <v>914</v>
@@ -22037,7 +22037,7 @@
         <v>27140</v>
       </c>
       <c r="B131" t="n">
-        <v>143363</v>
+        <v>174584</v>
       </c>
       <c r="C131" t="s">
         <v>921</v>
@@ -22104,7 +22104,7 @@
         <v>27140</v>
       </c>
       <c r="B132" t="n">
-        <v>143364</v>
+        <v>174585</v>
       </c>
       <c r="C132" t="s">
         <v>928</v>
@@ -22165,7 +22165,7 @@
         <v>27140</v>
       </c>
       <c r="B133" t="n">
-        <v>143365</v>
+        <v>174586</v>
       </c>
       <c r="C133" t="s">
         <v>935</v>
@@ -22307,7 +22307,7 @@
         <v>27140</v>
       </c>
       <c r="B135" t="n">
-        <v>143366</v>
+        <v>174587</v>
       </c>
       <c r="C135" t="s">
         <v>946</v>
@@ -22368,7 +22368,7 @@
         <v>27140</v>
       </c>
       <c r="B136" t="n">
-        <v>143367</v>
+        <v>174588</v>
       </c>
       <c r="C136" t="s">
         <v>953</v>
@@ -22439,7 +22439,7 @@
         <v>27140</v>
       </c>
       <c r="B137" t="n">
-        <v>143368</v>
+        <v>174589</v>
       </c>
       <c r="C137" t="s">
         <v>959</v>
@@ -22644,7 +22644,7 @@
         <v>27140</v>
       </c>
       <c r="B140" t="n">
-        <v>143369</v>
+        <v>174590</v>
       </c>
       <c r="C140" t="s">
         <v>976</v>
@@ -22715,7 +22715,7 @@
         <v>27140</v>
       </c>
       <c r="B141" t="n">
-        <v>143370</v>
+        <v>174591</v>
       </c>
       <c r="C141" t="s">
         <v>982</v>
@@ -22786,7 +22786,7 @@
         <v>27140</v>
       </c>
       <c r="B142" t="n">
-        <v>143371</v>
+        <v>174592</v>
       </c>
       <c r="C142" t="s">
         <v>988</v>
@@ -22857,7 +22857,7 @@
         <v>27140</v>
       </c>
       <c r="B143" t="n">
-        <v>143372</v>
+        <v>174593</v>
       </c>
       <c r="C143" t="s">
         <v>994</v>
@@ -23068,7 +23068,7 @@
         <v>27140</v>
       </c>
       <c r="B146" t="n">
-        <v>143373</v>
+        <v>174594</v>
       </c>
       <c r="C146" t="s">
         <v>1016</v>
@@ -23141,7 +23141,7 @@
         <v>27140</v>
       </c>
       <c r="B147" t="n">
-        <v>143374</v>
+        <v>174595</v>
       </c>
       <c r="C147" t="s">
         <v>1023</v>
@@ -23206,7 +23206,7 @@
         <v>27140</v>
       </c>
       <c r="B148" t="n">
-        <v>143375</v>
+        <v>174596</v>
       </c>
       <c r="C148" t="s">
         <v>1031</v>
@@ -23356,7 +23356,7 @@
         <v>27140</v>
       </c>
       <c r="B150" t="n">
-        <v>143376</v>
+        <v>174597</v>
       </c>
       <c r="C150" t="s">
         <v>1045</v>
@@ -23431,7 +23431,7 @@
         <v>27140</v>
       </c>
       <c r="B151" t="n">
-        <v>143377</v>
+        <v>174598</v>
       </c>
       <c r="C151" t="s">
         <v>1053</v>
@@ -23567,7 +23567,7 @@
         <v>27140</v>
       </c>
       <c r="B153" t="n">
-        <v>143378</v>
+        <v>174599</v>
       </c>
       <c r="C153" t="s">
         <v>1069</v>
@@ -23851,7 +23851,7 @@
         <v>27140</v>
       </c>
       <c r="B157" t="n">
-        <v>143379</v>
+        <v>174600</v>
       </c>
       <c r="C157" t="s">
         <v>1097</v>
@@ -23916,7 +23916,7 @@
         <v>27140</v>
       </c>
       <c r="B158" t="n">
-        <v>143380</v>
+        <v>174601</v>
       </c>
       <c r="C158" t="s">
         <v>1103</v>
@@ -23991,7 +23991,7 @@
         <v>27140</v>
       </c>
       <c r="B159" t="n">
-        <v>143381</v>
+        <v>174602</v>
       </c>
       <c r="C159" t="s">
         <v>1110</v>
@@ -24066,7 +24066,7 @@
         <v>27140</v>
       </c>
       <c r="B160" t="n">
-        <v>143382</v>
+        <v>174603</v>
       </c>
       <c r="C160" t="s">
         <v>1117</v>
@@ -24196,7 +24196,7 @@
         <v>27140</v>
       </c>
       <c r="B162" t="n">
-        <v>143383</v>
+        <v>174604</v>
       </c>
       <c r="C162" t="s">
         <v>1132</v>
@@ -24271,7 +24271,7 @@
         <v>27140</v>
       </c>
       <c r="B163" t="n">
-        <v>143384</v>
+        <v>174605</v>
       </c>
       <c r="C163" t="s">
         <v>1139</v>
@@ -24336,7 +24336,7 @@
         <v>27140</v>
       </c>
       <c r="B164" t="n">
-        <v>143385</v>
+        <v>174606</v>
       </c>
       <c r="C164" t="s">
         <v>1145</v>
@@ -24401,7 +24401,7 @@
         <v>27140</v>
       </c>
       <c r="B165" t="n">
-        <v>143386</v>
+        <v>174607</v>
       </c>
       <c r="C165" t="s">
         <v>1154</v>
@@ -24476,7 +24476,7 @@
         <v>27140</v>
       </c>
       <c r="B166" t="n">
-        <v>143387</v>
+        <v>174608</v>
       </c>
       <c r="C166" t="s">
         <v>1159</v>
@@ -24695,7 +24695,7 @@
         <v>27140</v>
       </c>
       <c r="B169" t="n">
-        <v>143388</v>
+        <v>174609</v>
       </c>
       <c r="C169" t="s">
         <v>1180</v>
@@ -24770,7 +24770,7 @@
         <v>27140</v>
       </c>
       <c r="B170" t="n">
-        <v>143389</v>
+        <v>174610</v>
       </c>
       <c r="C170" t="s">
         <v>1189</v>
@@ -24845,7 +24845,7 @@
         <v>27140</v>
       </c>
       <c r="B171" t="n">
-        <v>143390</v>
+        <v>174611</v>
       </c>
       <c r="C171" t="s">
         <v>1196</v>
@@ -24920,7 +24920,7 @@
         <v>27140</v>
       </c>
       <c r="B172" t="n">
-        <v>143391</v>
+        <v>174612</v>
       </c>
       <c r="C172" t="s">
         <v>1203</v>
@@ -24991,7 +24991,7 @@
         <v>27140</v>
       </c>
       <c r="B173" t="n">
-        <v>143392</v>
+        <v>174613</v>
       </c>
       <c r="C173" t="s">
         <v>1209</v>
@@ -25066,7 +25066,7 @@
         <v>27140</v>
       </c>
       <c r="B174" t="n">
-        <v>143393</v>
+        <v>174614</v>
       </c>
       <c r="C174" t="s">
         <v>1216</v>
@@ -25141,7 +25141,7 @@
         <v>27140</v>
       </c>
       <c r="B175" t="n">
-        <v>143394</v>
+        <v>174615</v>
       </c>
       <c r="C175" t="s">
         <v>1222</v>
@@ -25216,7 +25216,7 @@
         <v>27140</v>
       </c>
       <c r="B176" t="n">
-        <v>143395</v>
+        <v>174616</v>
       </c>
       <c r="C176" t="s">
         <v>1229</v>
@@ -25291,7 +25291,7 @@
         <v>27140</v>
       </c>
       <c r="B177" t="n">
-        <v>143396</v>
+        <v>174617</v>
       </c>
       <c r="C177" t="s">
         <v>1235</v>
@@ -25366,7 +25366,7 @@
         <v>27140</v>
       </c>
       <c r="B178" t="n">
-        <v>143397</v>
+        <v>174618</v>
       </c>
       <c r="C178" t="s">
         <v>1243</v>
@@ -25441,7 +25441,7 @@
         <v>27140</v>
       </c>
       <c r="B179" t="n">
-        <v>143398</v>
+        <v>174619</v>
       </c>
       <c r="C179" t="s">
         <v>1249</v>
@@ -25516,7 +25516,7 @@
         <v>27140</v>
       </c>
       <c r="B180" t="n">
-        <v>143399</v>
+        <v>174620</v>
       </c>
       <c r="C180" t="s">
         <v>1258</v>
@@ -25725,7 +25725,7 @@
         <v>27140</v>
       </c>
       <c r="B183" t="n">
-        <v>143400</v>
+        <v>174621</v>
       </c>
       <c r="C183" t="s">
         <v>1280</v>
@@ -25936,7 +25936,7 @@
         <v>27140</v>
       </c>
       <c r="B186" t="n">
-        <v>143401</v>
+        <v>174622</v>
       </c>
       <c r="C186" t="s">
         <v>1301</v>
@@ -26007,7 +26007,7 @@
         <v>27140</v>
       </c>
       <c r="B187" t="n">
-        <v>143402</v>
+        <v>174623</v>
       </c>
       <c r="C187" t="s">
         <v>1307</v>
@@ -26082,7 +26082,7 @@
         <v>27140</v>
       </c>
       <c r="B188" t="n">
-        <v>143403</v>
+        <v>174624</v>
       </c>
       <c r="C188" t="s">
         <v>1314</v>
@@ -26153,7 +26153,7 @@
         <v>27140</v>
       </c>
       <c r="B189" t="n">
-        <v>143404</v>
+        <v>174625</v>
       </c>
       <c r="C189" t="s">
         <v>1322</v>
@@ -26228,7 +26228,7 @@
         <v>27140</v>
       </c>
       <c r="B190" t="n">
-        <v>143405</v>
+        <v>174626</v>
       </c>
       <c r="C190" t="s">
         <v>1331</v>
@@ -26297,7 +26297,7 @@
         <v>27140</v>
       </c>
       <c r="B191" t="n">
-        <v>143406</v>
+        <v>174627</v>
       </c>
       <c r="C191" t="s">
         <v>1337</v>
@@ -26372,7 +26372,7 @@
         <v>27140</v>
       </c>
       <c r="B192" t="n">
-        <v>143407</v>
+        <v>174628</v>
       </c>
       <c r="C192" t="s">
         <v>1344</v>
@@ -26522,7 +26522,7 @@
         <v>27140</v>
       </c>
       <c r="B194" t="n">
-        <v>143408</v>
+        <v>174629</v>
       </c>
       <c r="C194" t="s">
         <v>1358</v>
@@ -26597,7 +26597,7 @@
         <v>27140</v>
       </c>
       <c r="B195" t="n">
-        <v>143409</v>
+        <v>174630</v>
       </c>
       <c r="C195" t="s">
         <v>1365</v>
@@ -26672,7 +26672,7 @@
         <v>27140</v>
       </c>
       <c r="B196" t="n">
-        <v>143410</v>
+        <v>174631</v>
       </c>
       <c r="C196" t="s">
         <v>1372</v>
@@ -26816,7 +26816,7 @@
         <v>27140</v>
       </c>
       <c r="B198" t="n">
-        <v>143411</v>
+        <v>174632</v>
       </c>
       <c r="C198" t="s">
         <v>1387</v>
@@ -26891,7 +26891,7 @@
         <v>27140</v>
       </c>
       <c r="B199" t="n">
-        <v>143412</v>
+        <v>174633</v>
       </c>
       <c r="C199" t="s">
         <v>1394</v>
@@ -26966,7 +26966,7 @@
         <v>27140</v>
       </c>
       <c r="B200" t="n">
-        <v>143413</v>
+        <v>174634</v>
       </c>
       <c r="C200" t="s">
         <v>1403</v>
@@ -27112,7 +27112,7 @@
         <v>27140</v>
       </c>
       <c r="B202" t="n">
-        <v>143414</v>
+        <v>174635</v>
       </c>
       <c r="C202" t="s">
         <v>1416</v>
@@ -27187,7 +27187,7 @@
         <v>27140</v>
       </c>
       <c r="B203" t="n">
-        <v>143415</v>
+        <v>174636</v>
       </c>
       <c r="C203" t="s">
         <v>1423</v>
@@ -27337,7 +27337,7 @@
         <v>27140</v>
       </c>
       <c r="B205" t="n">
-        <v>143416</v>
+        <v>174637</v>
       </c>
       <c r="C205" t="s">
         <v>1437</v>
@@ -27412,7 +27412,7 @@
         <v>27140</v>
       </c>
       <c r="B206" t="n">
-        <v>143417</v>
+        <v>174638</v>
       </c>
       <c r="C206" t="s">
         <v>1444</v>
@@ -27477,7 +27477,7 @@
         <v>27140</v>
       </c>
       <c r="B207" t="n">
-        <v>143418</v>
+        <v>174639</v>
       </c>
       <c r="C207" t="s">
         <v>1453</v>
@@ -27550,7 +27550,7 @@
         <v>27140</v>
       </c>
       <c r="B208" t="n">
-        <v>143419</v>
+        <v>174640</v>
       </c>
       <c r="C208" t="s">
         <v>1460</v>
@@ -27625,7 +27625,7 @@
         <v>27140</v>
       </c>
       <c r="B209" t="n">
-        <v>143420</v>
+        <v>174641</v>
       </c>
       <c r="C209" t="s">
         <v>1467</v>
@@ -27690,7 +27690,7 @@
         <v>27140</v>
       </c>
       <c r="B210" t="n">
-        <v>143421</v>
+        <v>174642</v>
       </c>
       <c r="C210" t="s">
         <v>1475</v>
@@ -27761,7 +27761,7 @@
         <v>27140</v>
       </c>
       <c r="B211" t="n">
-        <v>143422</v>
+        <v>174643</v>
       </c>
       <c r="C211" t="s">
         <v>1482</v>
@@ -27836,7 +27836,7 @@
         <v>27140</v>
       </c>
       <c r="B212" t="n">
-        <v>143423</v>
+        <v>174644</v>
       </c>
       <c r="C212" t="s">
         <v>1489</v>
@@ -27907,7 +27907,7 @@
         <v>27140</v>
       </c>
       <c r="B213" t="n">
-        <v>143424</v>
+        <v>174645</v>
       </c>
       <c r="C213" t="s">
         <v>1496</v>
@@ -28057,7 +28057,7 @@
         <v>27140</v>
       </c>
       <c r="B215" t="n">
-        <v>143425</v>
+        <v>174646</v>
       </c>
       <c r="C215" t="s">
         <v>1509</v>
@@ -28193,7 +28193,7 @@
         <v>27140</v>
       </c>
       <c r="B217" t="n">
-        <v>143426</v>
+        <v>174647</v>
       </c>
       <c r="C217" t="s">
         <v>1526</v>
@@ -28268,7 +28268,7 @@
         <v>27140</v>
       </c>
       <c r="B218" t="n">
-        <v>143427</v>
+        <v>174648</v>
       </c>
       <c r="C218" t="s">
         <v>1532</v>
@@ -28412,7 +28412,7 @@
         <v>27140</v>
       </c>
       <c r="B220" t="n">
-        <v>143428</v>
+        <v>174649</v>
       </c>
       <c r="C220" t="s">
         <v>1548</v>
@@ -28487,7 +28487,7 @@
         <v>27140</v>
       </c>
       <c r="B221" t="n">
-        <v>143429</v>
+        <v>174650</v>
       </c>
       <c r="C221" t="s">
         <v>1554</v>
@@ -28558,7 +28558,7 @@
         <v>27140</v>
       </c>
       <c r="B222" t="n">
-        <v>143430</v>
+        <v>174651</v>
       </c>
       <c r="C222" t="s">
         <v>1561</v>
@@ -28704,7 +28704,7 @@
         <v>27140</v>
       </c>
       <c r="B224" t="n">
-        <v>143431</v>
+        <v>174652</v>
       </c>
       <c r="C224" t="s">
         <v>1574</v>
@@ -28775,7 +28775,7 @@
         <v>27140</v>
       </c>
       <c r="B225" t="n">
-        <v>143432</v>
+        <v>174653</v>
       </c>
       <c r="C225" t="s">
         <v>1581</v>
@@ -28850,7 +28850,7 @@
         <v>27140</v>
       </c>
       <c r="B226" t="n">
-        <v>143433</v>
+        <v>174654</v>
       </c>
       <c r="C226" t="s">
         <v>1590</v>
@@ -28925,7 +28925,7 @@
         <v>27140</v>
       </c>
       <c r="B227" t="n">
-        <v>143434</v>
+        <v>174655</v>
       </c>
       <c r="C227" t="s">
         <v>1595</v>
@@ -28994,7 +28994,7 @@
         <v>27140</v>
       </c>
       <c r="B228" t="n">
-        <v>143435</v>
+        <v>174656</v>
       </c>
       <c r="C228" t="s">
         <v>1602</v>
@@ -29144,7 +29144,7 @@
         <v>27140</v>
       </c>
       <c r="B230" t="n">
-        <v>143436</v>
+        <v>174657</v>
       </c>
       <c r="C230" t="s">
         <v>1615</v>
@@ -29219,7 +29219,7 @@
         <v>27140</v>
       </c>
       <c r="B231" t="n">
-        <v>143437</v>
+        <v>174658</v>
       </c>
       <c r="C231" t="s">
         <v>1623</v>
@@ -29288,7 +29288,7 @@
         <v>27140</v>
       </c>
       <c r="B232" t="n">
-        <v>143438</v>
+        <v>174659</v>
       </c>
       <c r="C232" t="s">
         <v>1630</v>
@@ -29353,7 +29353,7 @@
         <v>27140</v>
       </c>
       <c r="B233" t="n">
-        <v>143439</v>
+        <v>174660</v>
       </c>
       <c r="C233" t="s">
         <v>1636</v>
@@ -29418,7 +29418,7 @@
         <v>27140</v>
       </c>
       <c r="B234" t="n">
-        <v>143440</v>
+        <v>174661</v>
       </c>
       <c r="C234" t="s">
         <v>1643</v>
@@ -29493,7 +29493,7 @@
         <v>27140</v>
       </c>
       <c r="B235" t="n">
-        <v>143441</v>
+        <v>174662</v>
       </c>
       <c r="C235" t="s">
         <v>1650</v>
@@ -29708,7 +29708,7 @@
         <v>27140</v>
       </c>
       <c r="B238" t="n">
-        <v>143442</v>
+        <v>174663</v>
       </c>
       <c r="C238" t="s">
         <v>1673</v>
@@ -29783,7 +29783,7 @@
         <v>27140</v>
       </c>
       <c r="B239" t="n">
-        <v>143443</v>
+        <v>174664</v>
       </c>
       <c r="C239" t="s">
         <v>1680</v>
@@ -29848,7 +29848,7 @@
         <v>27140</v>
       </c>
       <c r="B240" t="n">
-        <v>143444</v>
+        <v>174665</v>
       </c>
       <c r="C240" t="s">
         <v>1689</v>
@@ -29923,7 +29923,7 @@
         <v>27140</v>
       </c>
       <c r="B241" t="n">
-        <v>143445</v>
+        <v>174666</v>
       </c>
       <c r="C241" t="s">
         <v>1695</v>
@@ -29992,7 +29992,7 @@
         <v>27140</v>
       </c>
       <c r="B242" t="n">
-        <v>143446</v>
+        <v>174667</v>
       </c>
       <c r="C242" t="s">
         <v>1702</v>
@@ -30067,7 +30067,7 @@
         <v>27140</v>
       </c>
       <c r="B243" t="n">
-        <v>143447</v>
+        <v>174668</v>
       </c>
       <c r="C243" t="s">
         <v>1709</v>
@@ -30142,7 +30142,7 @@
         <v>27140</v>
       </c>
       <c r="B244" t="n">
-        <v>143448</v>
+        <v>174669</v>
       </c>
       <c r="C244" t="s">
         <v>1715</v>
@@ -30213,7 +30213,7 @@
         <v>27140</v>
       </c>
       <c r="B245" t="n">
-        <v>143449</v>
+        <v>174670</v>
       </c>
       <c r="C245" t="s">
         <v>1721</v>
@@ -30278,7 +30278,7 @@
         <v>27140</v>
       </c>
       <c r="B246" t="n">
-        <v>143450</v>
+        <v>174671</v>
       </c>
       <c r="C246" t="s">
         <v>1730</v>
@@ -30404,7 +30404,7 @@
         <v>27140</v>
       </c>
       <c r="B248" t="n">
-        <v>143451</v>
+        <v>174672</v>
       </c>
       <c r="C248" t="s">
         <v>1741</v>
@@ -30546,7 +30546,7 @@
         <v>27140</v>
       </c>
       <c r="B250" t="n">
-        <v>143452</v>
+        <v>174673</v>
       </c>
       <c r="C250" t="s">
         <v>1755</v>
@@ -30621,7 +30621,7 @@
         <v>27140</v>
       </c>
       <c r="B251" t="n">
-        <v>143453</v>
+        <v>174674</v>
       </c>
       <c r="C251" t="s">
         <v>1764</v>
@@ -30696,7 +30696,7 @@
         <v>27140</v>
       </c>
       <c r="B252" t="n">
-        <v>143454</v>
+        <v>174675</v>
       </c>
       <c r="C252" t="s">
         <v>1771</v>
@@ -30846,7 +30846,7 @@
         <v>27140</v>
       </c>
       <c r="B254" t="n">
-        <v>143455</v>
+        <v>174676</v>
       </c>
       <c r="C254" t="s">
         <v>1785</v>
@@ -30921,7 +30921,7 @@
         <v>27140</v>
       </c>
       <c r="B255" t="n">
-        <v>143456</v>
+        <v>174677</v>
       </c>
       <c r="C255" t="s">
         <v>1792</v>
@@ -30996,7 +30996,7 @@
         <v>27140</v>
       </c>
       <c r="B256" t="n">
-        <v>143457</v>
+        <v>174678</v>
       </c>
       <c r="C256" t="s">
         <v>1799</v>
@@ -31071,7 +31071,7 @@
         <v>27140</v>
       </c>
       <c r="B257" t="n">
-        <v>143458</v>
+        <v>174679</v>
       </c>
       <c r="C257" t="s">
         <v>1806</v>
@@ -31146,7 +31146,7 @@
         <v>27140</v>
       </c>
       <c r="B258" t="n">
-        <v>143459</v>
+        <v>174680</v>
       </c>
       <c r="C258" t="s">
         <v>1813</v>
@@ -31367,7 +31367,7 @@
         <v>27140</v>
       </c>
       <c r="B261" t="n">
-        <v>143460</v>
+        <v>174681</v>
       </c>
       <c r="C261" t="s">
         <v>1835</v>
@@ -31442,7 +31442,7 @@
         <v>27140</v>
       </c>
       <c r="B262" t="n">
-        <v>143461</v>
+        <v>174682</v>
       </c>
       <c r="C262" t="s">
         <v>1842</v>
@@ -31513,7 +31513,7 @@
         <v>27140</v>
       </c>
       <c r="B263" t="n">
-        <v>143462</v>
+        <v>174683</v>
       </c>
       <c r="C263" t="s">
         <v>1849</v>
@@ -31584,7 +31584,7 @@
         <v>27140</v>
       </c>
       <c r="B264" t="n">
-        <v>143463</v>
+        <v>174684</v>
       </c>
       <c r="C264" t="s">
         <v>1855</v>
@@ -31884,7 +31884,7 @@
         <v>27140</v>
       </c>
       <c r="B268" t="n">
-        <v>143464</v>
+        <v>174685</v>
       </c>
       <c r="C268" t="s">
         <v>1886</v>
@@ -32024,7 +32024,7 @@
         <v>27140</v>
       </c>
       <c r="B270" t="n">
-        <v>143465</v>
+        <v>174686</v>
       </c>
       <c r="C270" t="s">
         <v>1900</v>
@@ -32249,7 +32249,7 @@
         <v>27140</v>
       </c>
       <c r="B273" t="n">
-        <v>143466</v>
+        <v>174687</v>
       </c>
       <c r="C273" t="s">
         <v>1923</v>
@@ -32314,7 +32314,7 @@
         <v>27140</v>
       </c>
       <c r="B274" t="n">
-        <v>143467</v>
+        <v>174688</v>
       </c>
       <c r="C274" t="s">
         <v>1929</v>
@@ -32444,7 +32444,7 @@
         <v>27140</v>
       </c>
       <c r="B276" t="n">
-        <v>143468</v>
+        <v>143374</v>
       </c>
       <c r="C276" t="s">
         <v>1941</v>
@@ -32519,7 +32519,7 @@
         <v>27140</v>
       </c>
       <c r="B277" t="n">
-        <v>143469</v>
+        <v>174689</v>
       </c>
       <c r="C277" t="s">
         <v>1948</v>
@@ -32655,7 +32655,7 @@
         <v>27140</v>
       </c>
       <c r="B279" t="n">
-        <v>143470</v>
+        <v>174690</v>
       </c>
       <c r="C279" t="s">
         <v>1962</v>
@@ -32805,7 +32805,7 @@
         <v>27140</v>
       </c>
       <c r="B281" t="n">
-        <v>143471</v>
+        <v>174691</v>
       </c>
       <c r="C281" t="s">
         <v>1974</v>
@@ -32880,7 +32880,7 @@
         <v>27140</v>
       </c>
       <c r="B282" t="n">
-        <v>143472</v>
+        <v>174692</v>
       </c>
       <c r="C282" t="s">
         <v>1983</v>
@@ -32955,7 +32955,7 @@
         <v>27140</v>
       </c>
       <c r="B283" t="n">
-        <v>143473</v>
+        <v>174693</v>
       </c>
       <c r="C283" t="s">
         <v>1990</v>
@@ -33030,7 +33030,7 @@
         <v>27140</v>
       </c>
       <c r="B284" t="n">
-        <v>143474</v>
+        <v>174694</v>
       </c>
       <c r="C284" t="s">
         <v>1997</v>
@@ -33180,7 +33180,7 @@
         <v>27140</v>
       </c>
       <c r="B286" t="n">
-        <v>143475</v>
+        <v>174695</v>
       </c>
       <c r="C286" t="s">
         <v>2010</v>
@@ -33330,7 +33330,7 @@
         <v>27140</v>
       </c>
       <c r="B288" t="n">
-        <v>143476</v>
+        <v>174696</v>
       </c>
       <c r="C288" t="s">
         <v>2023</v>
@@ -33405,7 +33405,7 @@
         <v>27140</v>
       </c>
       <c r="B289" t="n">
-        <v>143477</v>
+        <v>174697</v>
       </c>
       <c r="C289" t="s">
         <v>2030</v>
@@ -33480,7 +33480,7 @@
         <v>27140</v>
       </c>
       <c r="B290" t="n">
-        <v>143478</v>
+        <v>174698</v>
       </c>
       <c r="C290" t="s">
         <v>2039</v>
@@ -33616,7 +33616,7 @@
         <v>27140</v>
       </c>
       <c r="B292" t="n">
-        <v>143479</v>
+        <v>174699</v>
       </c>
       <c r="C292" t="s">
         <v>2055</v>
@@ -33902,7 +33902,7 @@
         <v>27140</v>
       </c>
       <c r="B296" t="n">
-        <v>143480</v>
+        <v>174700</v>
       </c>
       <c r="C296" t="s">
         <v>2082</v>
@@ -33977,7 +33977,7 @@
         <v>27140</v>
       </c>
       <c r="B297" t="n">
-        <v>143481</v>
+        <v>174701</v>
       </c>
       <c r="C297" t="s">
         <v>2091</v>
@@ -34127,7 +34127,7 @@
         <v>27140</v>
       </c>
       <c r="B299" t="n">
-        <v>143482</v>
+        <v>174702</v>
       </c>
       <c r="C299" t="s">
         <v>2107</v>
@@ -34202,7 +34202,7 @@
         <v>27140</v>
       </c>
       <c r="B300" t="n">
-        <v>143483</v>
+        <v>174703</v>
       </c>
       <c r="C300" t="s">
         <v>2115</v>
@@ -34271,7 +34271,7 @@
         <v>27140</v>
       </c>
       <c r="B301" t="n">
-        <v>143484</v>
+        <v>174704</v>
       </c>
       <c r="C301" t="s">
         <v>2122</v>
@@ -34346,7 +34346,7 @@
         <v>27140</v>
       </c>
       <c r="B302" t="n">
-        <v>143485</v>
+        <v>174705</v>
       </c>
       <c r="C302" t="s">
         <v>2128</v>
@@ -34417,7 +34417,7 @@
         <v>27140</v>
       </c>
       <c r="B303" t="n">
-        <v>143486</v>
+        <v>174706</v>
       </c>
       <c r="C303" t="s">
         <v>2137</v>
@@ -34567,7 +34567,7 @@
         <v>27140</v>
       </c>
       <c r="B305" t="n">
-        <v>143487</v>
+        <v>143419</v>
       </c>
       <c r="C305" t="s">
         <v>2150</v>
@@ -34642,7 +34642,7 @@
         <v>27140</v>
       </c>
       <c r="B306" t="n">
-        <v>143488</v>
+        <v>174707</v>
       </c>
       <c r="C306" t="s">
         <v>2157</v>
@@ -34713,7 +34713,7 @@
         <v>27140</v>
       </c>
       <c r="B307" t="n">
-        <v>143489</v>
+        <v>174708</v>
       </c>
       <c r="C307" t="s">
         <v>2164</v>
@@ -34784,7 +34784,7 @@
         <v>27140</v>
       </c>
       <c r="B308" t="n">
-        <v>143490</v>
+        <v>174709</v>
       </c>
       <c r="C308" t="s">
         <v>2170</v>
@@ -34859,7 +34859,7 @@
         <v>27140</v>
       </c>
       <c r="B309" t="n">
-        <v>143491</v>
+        <v>174710</v>
       </c>
       <c r="C309" t="s">
         <v>2179</v>
@@ -35009,7 +35009,7 @@
         <v>27140</v>
       </c>
       <c r="B311" t="n">
-        <v>143492</v>
+        <v>174711</v>
       </c>
       <c r="C311" t="s">
         <v>2192</v>
@@ -35149,7 +35149,7 @@
         <v>27140</v>
       </c>
       <c r="B313" t="n">
-        <v>143493</v>
+        <v>174712</v>
       </c>
       <c r="C313" t="s">
         <v>2206</v>
@@ -35218,7 +35218,7 @@
         <v>27140</v>
       </c>
       <c r="B314" t="n">
-        <v>143494</v>
+        <v>174713</v>
       </c>
       <c r="C314" t="s">
         <v>2212</v>
@@ -35492,7 +35492,7 @@
         <v>27140</v>
       </c>
       <c r="B318" t="n">
-        <v>143495</v>
+        <v>174714</v>
       </c>
       <c r="C318" t="s">
         <v>2241</v>
@@ -35567,7 +35567,7 @@
         <v>27140</v>
       </c>
       <c r="B319" t="n">
-        <v>143496</v>
+        <v>174715</v>
       </c>
       <c r="C319" t="s">
         <v>2248</v>
@@ -35642,7 +35642,7 @@
         <v>27140</v>
       </c>
       <c r="B320" t="n">
-        <v>143497</v>
+        <v>174716</v>
       </c>
       <c r="C320" t="s">
         <v>2254</v>
@@ -35707,7 +35707,7 @@
         <v>27140</v>
       </c>
       <c r="B321" t="n">
-        <v>143498</v>
+        <v>174717</v>
       </c>
       <c r="C321" t="s">
         <v>2263</v>
@@ -35857,7 +35857,7 @@
         <v>27140</v>
       </c>
       <c r="B323" t="n">
-        <v>143499</v>
+        <v>174718</v>
       </c>
       <c r="C323" t="s">
         <v>2276</v>
@@ -35932,7 +35932,7 @@
         <v>27140</v>
       </c>
       <c r="B324" t="n">
-        <v>143500</v>
+        <v>143709</v>
       </c>
       <c r="C324" t="s">
         <v>2285</v>
@@ -36137,7 +36137,7 @@
         <v>27140</v>
       </c>
       <c r="B327" t="n">
-        <v>143501</v>
+        <v>174719</v>
       </c>
       <c r="C327" t="s">
         <v>2305</v>
@@ -36283,7 +36283,7 @@
         <v>27140</v>
       </c>
       <c r="B329" t="n">
-        <v>143502</v>
+        <v>174720</v>
       </c>
       <c r="C329" t="s">
         <v>2318</v>
@@ -36348,7 +36348,7 @@
         <v>27140</v>
       </c>
       <c r="B330" t="n">
-        <v>143503</v>
+        <v>174721</v>
       </c>
       <c r="C330" t="s">
         <v>2327</v>
@@ -36486,7 +36486,7 @@
         <v>27140</v>
       </c>
       <c r="B332" t="n">
-        <v>143504</v>
+        <v>174722</v>
       </c>
       <c r="C332" t="s">
         <v>2341</v>
@@ -36561,7 +36561,7 @@
         <v>27140</v>
       </c>
       <c r="B333" t="n">
-        <v>143505</v>
+        <v>174723</v>
       </c>
       <c r="C333" t="s">
         <v>2348</v>
@@ -36711,7 +36711,7 @@
         <v>27140</v>
       </c>
       <c r="B335" t="n">
-        <v>143506</v>
+        <v>174724</v>
       </c>
       <c r="C335" t="s">
         <v>2363</v>
@@ -36851,7 +36851,7 @@
         <v>27140</v>
       </c>
       <c r="B337" t="n">
-        <v>143507</v>
+        <v>174725</v>
       </c>
       <c r="C337" t="s">
         <v>2379</v>
@@ -37066,7 +37066,7 @@
         <v>27140</v>
       </c>
       <c r="B340" t="n">
-        <v>143508</v>
+        <v>174726</v>
       </c>
       <c r="C340" t="s">
         <v>2398</v>
@@ -37141,7 +37141,7 @@
         <v>27140</v>
       </c>
       <c r="B341" t="n">
-        <v>143509</v>
+        <v>174727</v>
       </c>
       <c r="C341" t="s">
         <v>2405</v>
@@ -37206,7 +37206,7 @@
         <v>27140</v>
       </c>
       <c r="B342" t="n">
-        <v>143510</v>
+        <v>174728</v>
       </c>
       <c r="C342" t="s">
         <v>2412</v>
@@ -37277,7 +37277,7 @@
         <v>27140</v>
       </c>
       <c r="B343" t="n">
-        <v>143511</v>
+        <v>144208</v>
       </c>
       <c r="C343" t="s">
         <v>2421</v>
@@ -37342,7 +37342,7 @@
         <v>27140</v>
       </c>
       <c r="B344" t="n">
-        <v>143512</v>
+        <v>174729</v>
       </c>
       <c r="C344" t="s">
         <v>2428</v>
@@ -37417,7 +37417,7 @@
         <v>27140</v>
       </c>
       <c r="B345" t="n">
-        <v>143513</v>
+        <v>174730</v>
       </c>
       <c r="C345" t="s">
         <v>2434</v>
@@ -37492,7 +37492,7 @@
         <v>27140</v>
       </c>
       <c r="B346" t="n">
-        <v>143514</v>
+        <v>174731</v>
       </c>
       <c r="C346" t="s">
         <v>2443</v>
@@ -37567,7 +37567,7 @@
         <v>27140</v>
       </c>
       <c r="B347" t="n">
-        <v>143515</v>
+        <v>174732</v>
       </c>
       <c r="C347" t="s">
         <v>2449</v>
@@ -37711,7 +37711,7 @@
         <v>27140</v>
       </c>
       <c r="B349" t="n">
-        <v>143516</v>
+        <v>174733</v>
       </c>
       <c r="C349" t="s">
         <v>2463</v>
@@ -37859,7 +37859,7 @@
         <v>27140</v>
       </c>
       <c r="B351" t="n">
-        <v>143517</v>
+        <v>174734</v>
       </c>
       <c r="C351" t="s">
         <v>2476</v>
@@ -37934,7 +37934,7 @@
         <v>27140</v>
       </c>
       <c r="B352" t="n">
-        <v>143518</v>
+        <v>174735</v>
       </c>
       <c r="C352" t="s">
         <v>2483</v>
@@ -38155,7 +38155,7 @@
         <v>27140</v>
       </c>
       <c r="B355" t="n">
-        <v>143519</v>
+        <v>174736</v>
       </c>
       <c r="C355" t="s">
         <v>2508</v>
@@ -38372,7 +38372,7 @@
         <v>27140</v>
       </c>
       <c r="B358" t="n">
-        <v>143520</v>
+        <v>174737</v>
       </c>
       <c r="C358" t="s">
         <v>2526</v>
@@ -38743,7 +38743,7 @@
         <v>27140</v>
       </c>
       <c r="B363" t="n">
-        <v>143521</v>
+        <v>174738</v>
       </c>
       <c r="C363" t="s">
         <v>2564</v>
@@ -38808,7 +38808,7 @@
         <v>27140</v>
       </c>
       <c r="B364" t="n">
-        <v>143522</v>
+        <v>143393</v>
       </c>
       <c r="C364" t="s">
         <v>2572</v>
@@ -38879,7 +38879,7 @@
         <v>27140</v>
       </c>
       <c r="B365" t="n">
-        <v>143523</v>
+        <v>174739</v>
       </c>
       <c r="C365" t="s">
         <v>2580</v>
@@ -38950,7 +38950,7 @@
         <v>27140</v>
       </c>
       <c r="B366" t="n">
-        <v>143524</v>
+        <v>174740</v>
       </c>
       <c r="C366" t="s">
         <v>2590</v>
@@ -39169,7 +39169,7 @@
         <v>27140</v>
       </c>
       <c r="B369" t="n">
-        <v>143525</v>
+        <v>174741</v>
       </c>
       <c r="C369" t="s">
         <v>2610</v>
@@ -39305,7 +39305,7 @@
         <v>27140</v>
       </c>
       <c r="B371" t="n">
-        <v>143526</v>
+        <v>174742</v>
       </c>
       <c r="C371" t="s">
         <v>2624</v>
@@ -39376,7 +39376,7 @@
         <v>27140</v>
       </c>
       <c r="B372" t="n">
-        <v>143527</v>
+        <v>174743</v>
       </c>
       <c r="C372" t="s">
         <v>2633</v>
@@ -39512,7 +39512,7 @@
         <v>27140</v>
       </c>
       <c r="B374" t="n">
-        <v>143528</v>
+        <v>174744</v>
       </c>
       <c r="C374" t="s">
         <v>2649</v>
@@ -39577,7 +39577,7 @@
         <v>27140</v>
       </c>
       <c r="B375" t="n">
-        <v>143529</v>
+        <v>174745</v>
       </c>
       <c r="C375" t="s">
         <v>2658</v>
@@ -39727,7 +39727,7 @@
         <v>27140</v>
       </c>
       <c r="B377" t="n">
-        <v>143530</v>
+        <v>174746</v>
       </c>
       <c r="C377" t="s">
         <v>2676</v>
@@ -39802,7 +39802,7 @@
         <v>27140</v>
       </c>
       <c r="B378" t="n">
-        <v>143531</v>
+        <v>174747</v>
       </c>
       <c r="C378" t="s">
         <v>2683</v>
@@ -39948,7 +39948,7 @@
         <v>27140</v>
       </c>
       <c r="B380" t="n">
-        <v>143532</v>
+        <v>174748</v>
       </c>
       <c r="C380" t="s">
         <v>2697</v>
@@ -40019,7 +40019,7 @@
         <v>27140</v>
       </c>
       <c r="B381" t="n">
-        <v>143533</v>
+        <v>174749</v>
       </c>
       <c r="C381" t="s">
         <v>2706</v>
@@ -40159,7 +40159,7 @@
         <v>27140</v>
       </c>
       <c r="B383" t="n">
-        <v>143534</v>
+        <v>174750</v>
       </c>
       <c r="C383" t="s">
         <v>2720</v>
@@ -40224,7 +40224,7 @@
         <v>27140</v>
       </c>
       <c r="B384" t="n">
-        <v>143535</v>
+        <v>174751</v>
       </c>
       <c r="C384" t="s">
         <v>2729</v>
@@ -40374,7 +40374,7 @@
         <v>27140</v>
       </c>
       <c r="B386" t="n">
-        <v>143536</v>
+        <v>174752</v>
       </c>
       <c r="C386" t="s">
         <v>2745</v>
@@ -40445,7 +40445,7 @@
         <v>27140</v>
       </c>
       <c r="B387" t="n">
-        <v>143537</v>
+        <v>174753</v>
       </c>
       <c r="C387" t="s">
         <v>2754</v>
@@ -40589,7 +40589,7 @@
         <v>27140</v>
       </c>
       <c r="B389" t="n">
-        <v>143538</v>
+        <v>174754</v>
       </c>
       <c r="C389" t="s">
         <v>2770</v>
@@ -40660,7 +40660,7 @@
         <v>27140</v>
       </c>
       <c r="B390" t="n">
-        <v>143539</v>
+        <v>174755</v>
       </c>
       <c r="C390" t="s">
         <v>2778</v>
@@ -40881,7 +40881,7 @@
         <v>27140</v>
       </c>
       <c r="B393" t="n">
-        <v>143540</v>
+        <v>174756</v>
       </c>
       <c r="C393" t="s">
         <v>2802</v>
@@ -41100,7 +41100,7 @@
         <v>27140</v>
       </c>
       <c r="B396" t="n">
-        <v>143541</v>
+        <v>174757</v>
       </c>
       <c r="C396" t="s">
         <v>2823</v>
@@ -41171,7 +41171,7 @@
         <v>27140</v>
       </c>
       <c r="B397" t="n">
-        <v>143542</v>
+        <v>174758</v>
       </c>
       <c r="C397" t="s">
         <v>2831</v>
@@ -41390,7 +41390,7 @@
         <v>27140</v>
       </c>
       <c r="B400" t="n">
-        <v>143543</v>
+        <v>174759</v>
       </c>
       <c r="C400" t="s">
         <v>2852</v>
@@ -41461,7 +41461,7 @@
         <v>27140</v>
       </c>
       <c r="B401" t="n">
-        <v>143544</v>
+        <v>174760</v>
       </c>
       <c r="C401" t="s">
         <v>2858</v>
@@ -41530,7 +41530,7 @@
         <v>27140</v>
       </c>
       <c r="B402" t="n">
-        <v>143545</v>
+        <v>174761</v>
       </c>
       <c r="C402" t="s">
         <v>2867</v>
@@ -41605,7 +41605,7 @@
         <v>27140</v>
       </c>
       <c r="B403" t="n">
-        <v>143546</v>
+        <v>174762</v>
       </c>
       <c r="C403" t="s">
         <v>2873</v>
@@ -41749,7 +41749,7 @@
         <v>27140</v>
       </c>
       <c r="B405" t="n">
-        <v>143547</v>
+        <v>174763</v>
       </c>
       <c r="C405" t="s">
         <v>2889</v>
@@ -41820,7 +41820,7 @@
         <v>27140</v>
       </c>
       <c r="B406" t="n">
-        <v>143548</v>
+        <v>174764</v>
       </c>
       <c r="C406" t="s">
         <v>2896</v>
@@ -41895,7 +41895,7 @@
         <v>27140</v>
       </c>
       <c r="B407" t="n">
-        <v>143549</v>
+        <v>174765</v>
       </c>
       <c r="C407" t="s">
         <v>2902</v>
@@ -41960,7 +41960,7 @@
         <v>27140</v>
       </c>
       <c r="B408" t="n">
-        <v>143550</v>
+        <v>174766</v>
       </c>
       <c r="C408" t="s">
         <v>2911</v>
@@ -42025,7 +42025,7 @@
         <v>27140</v>
       </c>
       <c r="B409" t="n">
-        <v>143551</v>
+        <v>174767</v>
       </c>
       <c r="C409" t="s">
         <v>2918</v>
@@ -42090,7 +42090,7 @@
         <v>27140</v>
       </c>
       <c r="B410" t="n">
-        <v>143552</v>
+        <v>174768</v>
       </c>
       <c r="C410" t="s">
         <v>2924</v>
@@ -42305,7 +42305,7 @@
         <v>27140</v>
       </c>
       <c r="B413" t="n">
-        <v>143553</v>
+        <v>174769</v>
       </c>
       <c r="C413" t="s">
         <v>2946</v>
@@ -42370,7 +42370,7 @@
         <v>27140</v>
       </c>
       <c r="B414" t="n">
-        <v>143554</v>
+        <v>174770</v>
       </c>
       <c r="C414" t="s">
         <v>2955</v>
@@ -42435,7 +42435,7 @@
         <v>27140</v>
       </c>
       <c r="B415" t="n">
-        <v>143555</v>
+        <v>174771</v>
       </c>
       <c r="C415" t="s">
         <v>2962</v>
@@ -42504,7 +42504,7 @@
         <v>27140</v>
       </c>
       <c r="B416" t="n">
-        <v>143556</v>
+        <v>174772</v>
       </c>
       <c r="C416" t="s">
         <v>2969</v>
@@ -42579,7 +42579,7 @@
         <v>27140</v>
       </c>
       <c r="B417" t="n">
-        <v>143557</v>
+        <v>174773</v>
       </c>
       <c r="C417" t="s">
         <v>2977</v>
@@ -42650,7 +42650,7 @@
         <v>27140</v>
       </c>
       <c r="B418" t="n">
-        <v>143558</v>
+        <v>174774</v>
       </c>
       <c r="C418" t="s">
         <v>2986</v>
@@ -42719,7 +42719,7 @@
         <v>27140</v>
       </c>
       <c r="B419" t="n">
-        <v>143559</v>
+        <v>174775</v>
       </c>
       <c r="C419" t="s">
         <v>2992</v>
@@ -42920,7 +42920,7 @@
         <v>27140</v>
       </c>
       <c r="B422" t="n">
-        <v>143560</v>
+        <v>174776</v>
       </c>
       <c r="C422" t="s">
         <v>3014</v>
@@ -42985,7 +42985,7 @@
         <v>27140</v>
       </c>
       <c r="B423" t="n">
-        <v>143561</v>
+        <v>174777</v>
       </c>
       <c r="C423" t="s">
         <v>3021</v>
@@ -43054,7 +43054,7 @@
         <v>27140</v>
       </c>
       <c r="B424" t="n">
-        <v>143562</v>
+        <v>174778</v>
       </c>
       <c r="C424" t="s">
         <v>3028</v>
@@ -43269,7 +43269,7 @@
         <v>27140</v>
       </c>
       <c r="B427" t="n">
-        <v>143563</v>
+        <v>174779</v>
       </c>
       <c r="C427" t="s">
         <v>3047</v>
@@ -43334,7 +43334,7 @@
         <v>27140</v>
       </c>
       <c r="B428" t="n">
-        <v>143564</v>
+        <v>174780</v>
       </c>
       <c r="C428" t="s">
         <v>3054</v>
@@ -43843,7 +43843,7 @@
         <v>27140</v>
       </c>
       <c r="B435" t="n">
-        <v>143565</v>
+        <v>174781</v>
       </c>
       <c r="C435" t="s">
         <v>3107</v>
@@ -43918,7 +43918,7 @@
         <v>27140</v>
       </c>
       <c r="B436" t="n">
-        <v>143566</v>
+        <v>174782</v>
       </c>
       <c r="C436" t="s">
         <v>3113</v>
@@ -43993,7 +43993,7 @@
         <v>27140</v>
       </c>
       <c r="B437" t="n">
-        <v>143567</v>
+        <v>174783</v>
       </c>
       <c r="C437" t="s">
         <v>3122</v>
@@ -44068,7 +44068,7 @@
         <v>27140</v>
       </c>
       <c r="B438" t="n">
-        <v>143568</v>
+        <v>174784</v>
       </c>
       <c r="C438" t="s">
         <v>3129</v>
@@ -44364,7 +44364,7 @@
         <v>27140</v>
       </c>
       <c r="B442" t="n">
-        <v>143569</v>
+        <v>174785</v>
       </c>
       <c r="C442" t="s">
         <v>3156</v>
@@ -44435,7 +44435,7 @@
         <v>27140</v>
       </c>
       <c r="B443" t="n">
-        <v>143467</v>
+        <v>143374</v>
       </c>
       <c r="C443" t="s">
         <v>1941</v>
@@ -44638,7 +44638,7 @@
         <v>27140</v>
       </c>
       <c r="B446" t="n">
-        <v>143570</v>
+        <v>174786</v>
       </c>
       <c r="C446" t="s">
         <v>3180</v>
@@ -44705,7 +44705,7 @@
         <v>27140</v>
       </c>
       <c r="B447" t="n">
-        <v>143571</v>
+        <v>174787</v>
       </c>
       <c r="C447" t="s">
         <v>3186</v>
@@ -44847,7 +44847,7 @@
         <v>27140</v>
       </c>
       <c r="B449" t="n">
-        <v>143572</v>
+        <v>174788</v>
       </c>
       <c r="C449" t="s">
         <v>3196</v>
@@ -44914,7 +44914,7 @@
         <v>27140</v>
       </c>
       <c r="B450" t="n">
-        <v>143573</v>
+        <v>174789</v>
       </c>
       <c r="C450" t="s">
         <v>3203</v>
@@ -45107,7 +45107,7 @@
         <v>27140</v>
       </c>
       <c r="B453" t="n">
-        <v>143574</v>
+        <v>174790</v>
       </c>
       <c r="C453" t="s">
         <v>3221</v>
@@ -45381,7 +45381,7 @@
         <v>27140</v>
       </c>
       <c r="B457" t="n">
-        <v>143575</v>
+        <v>174791</v>
       </c>
       <c r="C457" t="s">
         <v>3246</v>
@@ -45452,7 +45452,7 @@
         <v>27140</v>
       </c>
       <c r="B458" t="n">
-        <v>143576</v>
+        <v>174792</v>
       </c>
       <c r="C458" t="s">
         <v>3252</v>
@@ -45594,7 +45594,7 @@
         <v>27140</v>
       </c>
       <c r="B460" t="n">
-        <v>143577</v>
+        <v>174793</v>
       </c>
       <c r="C460" t="s">
         <v>3264</v>
@@ -45655,7 +45655,7 @@
         <v>27140</v>
       </c>
       <c r="B461" t="n">
-        <v>143578</v>
+        <v>174794</v>
       </c>
       <c r="C461" t="s">
         <v>3270</v>
@@ -45852,7 +45852,7 @@
         <v>27140</v>
       </c>
       <c r="B464" t="n">
-        <v>143579</v>
+        <v>174795</v>
       </c>
       <c r="C464" t="s">
         <v>3287</v>
@@ -45927,7 +45927,7 @@
         <v>27140</v>
       </c>
       <c r="B465" t="n">
-        <v>143580</v>
+        <v>174796</v>
       </c>
       <c r="C465" t="s">
         <v>3296</v>
@@ -45992,7 +45992,7 @@
         <v>27140</v>
       </c>
       <c r="B466" t="n">
-        <v>143581</v>
+        <v>174797</v>
       </c>
       <c r="C466" t="s">
         <v>3304</v>
@@ -46063,7 +46063,7 @@
         <v>27140</v>
       </c>
       <c r="B467" t="n">
-        <v>143582</v>
+        <v>174798</v>
       </c>
       <c r="C467" t="s">
         <v>3311</v>
@@ -46134,7 +46134,7 @@
         <v>27140</v>
       </c>
       <c r="B468" t="n">
-        <v>143583</v>
+        <v>174799</v>
       </c>
       <c r="C468" t="s">
         <v>3317</v>
@@ -46270,7 +46270,7 @@
         <v>27140</v>
       </c>
       <c r="B470" t="n">
-        <v>143584</v>
+        <v>174800</v>
       </c>
       <c r="C470" t="s">
         <v>3330</v>
@@ -46402,7 +46402,7 @@
         <v>27140</v>
       </c>
       <c r="B472" t="n">
-        <v>143585</v>
+        <v>174801</v>
       </c>
       <c r="C472" t="s">
         <v>3342</v>
@@ -46477,7 +46477,7 @@
         <v>27140</v>
       </c>
       <c r="B473" t="n">
-        <v>143586</v>
+        <v>174802</v>
       </c>
       <c r="C473" t="s">
         <v>3349</v>
@@ -46623,7 +46623,7 @@
         <v>27140</v>
       </c>
       <c r="B475" t="n">
-        <v>143587</v>
+        <v>174803</v>
       </c>
       <c r="C475" t="s">
         <v>3363</v>
@@ -46698,7 +46698,7 @@
         <v>27140</v>
       </c>
       <c r="B476" t="n">
-        <v>143588</v>
+        <v>174804</v>
       </c>
       <c r="C476" t="s">
         <v>3372</v>
@@ -46767,7 +46767,7 @@
         <v>27140</v>
       </c>
       <c r="B477" t="n">
-        <v>143589</v>
+        <v>174805</v>
       </c>
       <c r="C477" t="s">
         <v>3381</v>
@@ -46838,7 +46838,7 @@
         <v>27140</v>
       </c>
       <c r="B478" t="n">
-        <v>143590</v>
+        <v>174806</v>
       </c>
       <c r="C478" t="s">
         <v>3387</v>
@@ -46974,7 +46974,7 @@
         <v>27140</v>
       </c>
       <c r="B480" t="n">
-        <v>143591</v>
+        <v>174807</v>
       </c>
       <c r="C480" t="s">
         <v>3400</v>
@@ -47045,7 +47045,7 @@
         <v>27140</v>
       </c>
       <c r="B481" t="n">
-        <v>143592</v>
+        <v>174808</v>
       </c>
       <c r="C481" t="s">
         <v>3409</v>
@@ -47187,7 +47187,7 @@
         <v>27140</v>
       </c>
       <c r="B483" t="n">
-        <v>143593</v>
+        <v>174809</v>
       </c>
       <c r="C483" t="s">
         <v>3425</v>
@@ -47252,7 +47252,7 @@
         <v>27140</v>
       </c>
       <c r="B484" t="n">
-        <v>143314</v>
+        <v>143391</v>
       </c>
       <c r="C484" t="s">
         <v>576</v>
@@ -47313,7 +47313,7 @@
         <v>27140</v>
       </c>
       <c r="B485" t="n">
-        <v>143594</v>
+        <v>174810</v>
       </c>
       <c r="C485" t="s">
         <v>3436</v>
@@ -47451,7 +47451,7 @@
         <v>27140</v>
       </c>
       <c r="B487" t="n">
-        <v>143521</v>
+        <v>143393</v>
       </c>
       <c r="C487" t="s">
         <v>2572</v>
@@ -47520,7 +47520,7 @@
         <v>27140</v>
       </c>
       <c r="B488" t="n">
-        <v>143595</v>
+        <v>174811</v>
       </c>
       <c r="C488" t="s">
         <v>3457</v>
@@ -47591,7 +47591,7 @@
         <v>27140</v>
       </c>
       <c r="B489" t="n">
-        <v>143596</v>
+        <v>174812</v>
       </c>
       <c r="C489" t="s">
         <v>3464</v>
@@ -47948,7 +47948,7 @@
         <v>27140</v>
       </c>
       <c r="B494" t="n">
-        <v>143597</v>
+        <v>174813</v>
       </c>
       <c r="C494" t="s">
         <v>3499</v>
@@ -48019,7 +48019,7 @@
         <v>27140</v>
       </c>
       <c r="B495" t="n">
-        <v>143598</v>
+        <v>174814</v>
       </c>
       <c r="C495" t="s">
         <v>3506</v>
@@ -48086,7 +48086,7 @@
         <v>27140</v>
       </c>
       <c r="B496" t="n">
-        <v>143599</v>
+        <v>174815</v>
       </c>
       <c r="C496" t="s">
         <v>3513</v>
@@ -48366,7 +48366,7 @@
         <v>27140</v>
       </c>
       <c r="B500" t="n">
-        <v>143600</v>
+        <v>174816</v>
       </c>
       <c r="C500" t="s">
         <v>3540</v>
@@ -48429,7 +48429,7 @@
         <v>27140</v>
       </c>
       <c r="B501" t="n">
-        <v>143601</v>
+        <v>174817</v>
       </c>
       <c r="C501" t="s">
         <v>3547</v>
@@ -48707,7 +48707,7 @@
         <v>27140</v>
       </c>
       <c r="B505" t="n">
-        <v>143602</v>
+        <v>174818</v>
       </c>
       <c r="C505" t="s">
         <v>3574</v>
@@ -48774,7 +48774,7 @@
         <v>27140</v>
       </c>
       <c r="B506" t="n">
-        <v>143603</v>
+        <v>174819</v>
       </c>
       <c r="C506" t="s">
         <v>3580</v>
@@ -48845,7 +48845,7 @@
         <v>27140</v>
       </c>
       <c r="B507" t="n">
-        <v>143604</v>
+        <v>174820</v>
       </c>
       <c r="C507" t="s">
         <v>3585</v>
@@ -48989,7 +48989,7 @@
         <v>27140</v>
       </c>
       <c r="B509" t="n">
-        <v>143605</v>
+        <v>174821</v>
       </c>
       <c r="C509" t="s">
         <v>3596</v>
@@ -49200,7 +49200,7 @@
         <v>27140</v>
       </c>
       <c r="B512" t="n">
-        <v>143606</v>
+        <v>174822</v>
       </c>
       <c r="C512" t="s">
         <v>3612</v>
@@ -49555,7 +49555,7 @@
         <v>27140</v>
       </c>
       <c r="B517" t="n">
-        <v>143607</v>
+        <v>174823</v>
       </c>
       <c r="C517" t="s">
         <v>3644</v>
@@ -49701,7 +49701,7 @@
         <v>27140</v>
       </c>
       <c r="B519" t="n">
-        <v>143608</v>
+        <v>174824</v>
       </c>
       <c r="C519" t="s">
         <v>3664</v>
@@ -49912,7 +49912,7 @@
         <v>27140</v>
       </c>
       <c r="B522" t="n">
-        <v>143609</v>
+        <v>174825</v>
       </c>
       <c r="C522" t="s">
         <v>3681</v>
@@ -50054,7 +50054,7 @@
         <v>27140</v>
       </c>
       <c r="B524" t="n">
-        <v>143610</v>
+        <v>174826</v>
       </c>
       <c r="C524" t="s">
         <v>3696</v>
@@ -50261,7 +50261,7 @@
         <v>27140</v>
       </c>
       <c r="B527" t="n">
-        <v>143611</v>
+        <v>174827</v>
       </c>
       <c r="C527" t="s">
         <v>3717</v>
@@ -50472,7 +50472,7 @@
         <v>27140</v>
       </c>
       <c r="B530" t="n">
-        <v>143486</v>
+        <v>143419</v>
       </c>
       <c r="C530" t="s">
         <v>2150</v>
@@ -50831,7 +50831,7 @@
         <v>27140</v>
       </c>
       <c r="B535" t="n">
-        <v>143612</v>
+        <v>174828</v>
       </c>
       <c r="C535" t="s">
         <v>3773</v>
@@ -50898,7 +50898,7 @@
         <v>27140</v>
       </c>
       <c r="B536" t="n">
-        <v>143613</v>
+        <v>174829</v>
       </c>
       <c r="C536" t="s">
         <v>3779</v>
@@ -51040,7 +51040,7 @@
         <v>27140</v>
       </c>
       <c r="B538" t="n">
-        <v>143614</v>
+        <v>174830</v>
       </c>
       <c r="C538" t="s">
         <v>3793</v>
@@ -51253,7 +51253,7 @@
         <v>27140</v>
       </c>
       <c r="B541" t="n">
-        <v>143615</v>
+        <v>174831</v>
       </c>
       <c r="C541" t="s">
         <v>3815</v>
@@ -51537,7 +51537,7 @@
         <v>27140</v>
       </c>
       <c r="B545" t="n">
-        <v>143616</v>
+        <v>174832</v>
       </c>
       <c r="C545" t="s">
         <v>3840</v>
@@ -51612,7 +51612,7 @@
         <v>27140</v>
       </c>
       <c r="B546" t="n">
-        <v>143617</v>
+        <v>174833</v>
       </c>
       <c r="C546" t="s">
         <v>3849</v>
@@ -51679,7 +51679,7 @@
         <v>27140</v>
       </c>
       <c r="B547" t="n">
-        <v>143618</v>
+        <v>174834</v>
       </c>
       <c r="C547" t="s">
         <v>3856</v>
@@ -51892,7 +51892,7 @@
         <v>27140</v>
       </c>
       <c r="B550" t="n">
-        <v>143619</v>
+        <v>174835</v>
       </c>
       <c r="C550" t="s">
         <v>3874</v>
@@ -52105,7 +52105,7 @@
         <v>27140</v>
       </c>
       <c r="B553" t="n">
-        <v>143620</v>
+        <v>174836</v>
       </c>
       <c r="C553" t="s">
         <v>3895</v>
@@ -52176,7 +52176,7 @@
         <v>27140</v>
       </c>
       <c r="B554" t="n">
-        <v>143621</v>
+        <v>174837</v>
       </c>
       <c r="C554" t="s">
         <v>3900</v>
@@ -52233,7 +52233,7 @@
         <v>27140</v>
       </c>
       <c r="B555" t="n">
-        <v>143622</v>
+        <v>174838</v>
       </c>
       <c r="C555" t="s">
         <v>3906</v>
@@ -52304,7 +52304,7 @@
         <v>27140</v>
       </c>
       <c r="B556" t="n">
-        <v>143623</v>
+        <v>174839</v>
       </c>
       <c r="C556" t="s">
         <v>3914</v>
@@ -52592,7 +52592,7 @@
         <v>27140</v>
       </c>
       <c r="B560" t="n">
-        <v>143624</v>
+        <v>174840</v>
       </c>
       <c r="C560" t="s">
         <v>3942</v>
@@ -52809,7 +52809,7 @@
         <v>27140</v>
       </c>
       <c r="B563" t="n">
-        <v>143625</v>
+        <v>174841</v>
       </c>
       <c r="C563" t="s">
         <v>3960</v>
@@ -53026,7 +53026,7 @@
         <v>27140</v>
       </c>
       <c r="B566" t="n">
-        <v>143626</v>
+        <v>174842</v>
       </c>
       <c r="C566" t="s">
         <v>3980</v>
@@ -53243,7 +53243,7 @@
         <v>27140</v>
       </c>
       <c r="B569" t="n">
-        <v>143627</v>
+        <v>174843</v>
       </c>
       <c r="C569" t="s">
         <v>3998</v>
@@ -53314,7 +53314,7 @@
         <v>27140</v>
       </c>
       <c r="B570" t="n">
-        <v>143628</v>
+        <v>174844</v>
       </c>
       <c r="C570" t="s">
         <v>4004</v>
@@ -53460,7 +53460,7 @@
         <v>27140</v>
       </c>
       <c r="B572" t="n">
-        <v>143629</v>
+        <v>174845</v>
       </c>
       <c r="C572" t="s">
         <v>4017</v>
@@ -53531,7 +53531,7 @@
         <v>27140</v>
       </c>
       <c r="B573" t="n">
-        <v>143630</v>
+        <v>174846</v>
       </c>
       <c r="C573" t="s">
         <v>4023</v>
@@ -53673,7 +53673,7 @@
         <v>27140</v>
       </c>
       <c r="B575" t="n">
-        <v>143631</v>
+        <v>174847</v>
       </c>
       <c r="C575" t="s">
         <v>4034</v>
@@ -53805,7 +53805,7 @@
         <v>27140</v>
       </c>
       <c r="B577" t="n">
-        <v>143632</v>
+        <v>174848</v>
       </c>
       <c r="C577" t="s">
         <v>4048</v>
@@ -53951,7 +53951,7 @@
         <v>27140</v>
       </c>
       <c r="B579" t="n">
-        <v>143633</v>
+        <v>174849</v>
       </c>
       <c r="C579" t="s">
         <v>4063</v>
@@ -54022,7 +54022,7 @@
         <v>27140</v>
       </c>
       <c r="B580" t="n">
-        <v>143634</v>
+        <v>174850</v>
       </c>
       <c r="C580" t="s">
         <v>4069</v>
@@ -54162,7 +54162,7 @@
         <v>27140</v>
       </c>
       <c r="B582" t="n">
-        <v>143635</v>
+        <v>174851</v>
       </c>
       <c r="C582" t="s">
         <v>4082</v>
@@ -54444,7 +54444,7 @@
         <v>27140</v>
       </c>
       <c r="B586" t="n">
-        <v>143636</v>
+        <v>174852</v>
       </c>
       <c r="C586" t="s">
         <v>4109</v>
@@ -54590,7 +54590,7 @@
         <v>27140</v>
       </c>
       <c r="B588" t="n">
-        <v>143637</v>
+        <v>174853</v>
       </c>
       <c r="C588" t="s">
         <v>4123</v>
@@ -54661,7 +54661,7 @@
         <v>27140</v>
       </c>
       <c r="B589" t="n">
-        <v>143638</v>
+        <v>174854</v>
       </c>
       <c r="C589" t="s">
         <v>4130</v>
